--- a/Documentation/rev2/Tricorder_BOM.xlsx
+++ b/Documentation/rev2/Tricorder_BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbparks/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbparks/Documents/GitHub Repositories/TI_Tricorder/Documentation/rev2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="2460" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="2420" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Tricorder_BoosterPack" localSheetId="0">Sheet2!$B$1:$G$39</definedName>
+    <definedName name="Tricorder_BoosterPack" localSheetId="0">Sheet2!$B$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>Part</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
   </si>
   <si>
     <t>S1</t>
@@ -694,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -731,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1">
         <v>8</v>
@@ -745,16 +742,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -768,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -780,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -806,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -832,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -858,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -884,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -910,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -964,7 +961,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -984,13 +981,13 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1004,10 +1001,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1024,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1041,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1058,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1078,7 +1075,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1098,7 +1095,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,7 +1115,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,7 +1135,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,7 +1155,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,7 +1175,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1198,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,7 +1215,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1238,7 +1235,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1246,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -1258,7 +1255,7 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1278,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,17 +1285,14 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,16 +1300,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
         <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1326,13 +1320,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1357,16 +1351,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1374,16 +1368,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1391,19 +1388,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1411,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>89</v>
@@ -1431,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
         <v>90</v>
@@ -1451,16 +1448,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
@@ -1471,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1491,39 +1488,19 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/rev2/Tricorder_BOM.xlsx
+++ b/Documentation/rev2/Tricorder_BOM.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2420" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="4540" yWindow="1440" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Tricorder_BoosterPack" localSheetId="0">Sheet2!$B$1:$G$38</definedName>
+    <definedName name="Tricorder_BoosterPack" localSheetId="0">Sheet2!$B$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="121">
   <si>
     <t>Part</t>
   </si>
@@ -84,36 +84,15 @@
     <t>CAPACITOR, American symbol</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>0.1u</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
@@ -135,15 +114,9 @@
     <t>CHIPLED_0603</t>
   </si>
   <si>
-    <t>LED2</t>
-  </si>
-  <si>
     <t>LED3</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -153,54 +126,21 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
     <t>47k</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>OMRON SWITCH</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -357,19 +297,124 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>Buttons</t>
-  </si>
-  <si>
     <t>Switches</t>
   </si>
   <si>
-    <t>LEDs</t>
-  </si>
-  <si>
-    <t>microSD</t>
-  </si>
-  <si>
     <t>Ics</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Mfr Part #</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>CRCW0603220RFKEA</t>
+  </si>
+  <si>
+    <t>R3 R4, R5</t>
+  </si>
+  <si>
+    <t>CRCW060310K0FKEA</t>
+  </si>
+  <si>
+    <t>R6, R7, R9, R11</t>
+  </si>
+  <si>
+    <t>Do Not Populate</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>S1, S2, S3</t>
+  </si>
+  <si>
+    <t>CRCW060347K0FKEA</t>
+  </si>
+  <si>
+    <t>CRCW06031K00FKEA</t>
+  </si>
+  <si>
+    <t>C2, C3, C4, C5, C7, C8</t>
+  </si>
+  <si>
+    <t>C0603C104K5RACTU</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>C0603C105K4RACTU</t>
+  </si>
+  <si>
+    <t>HSMG-C190</t>
+  </si>
+  <si>
+    <t>Avago</t>
+  </si>
+  <si>
+    <t>HSMH-C190</t>
+  </si>
+  <si>
+    <t>SSHQ-110-D-10-G-LF</t>
+  </si>
+  <si>
+    <t>Major Leage Electronics</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>Eswitch</t>
+  </si>
+  <si>
+    <t>EG1218S</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Freescale</t>
+  </si>
+  <si>
+    <t>MAG3110FCR1</t>
+  </si>
+  <si>
+    <t>LMT70YFQT</t>
+  </si>
+  <si>
+    <t>HDC1000YPAT</t>
+  </si>
+  <si>
+    <t>LMP91000SD/NOPB</t>
+  </si>
+  <si>
+    <t>PGA900ARHHT</t>
+  </si>
+  <si>
+    <t>OPT3001DNPR</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>2908-05WB-MG</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>PP-P-C-3-1-LFB-N</t>
+  </si>
+  <si>
+    <t>PP-P-C-4-2-LFB-N</t>
+  </si>
+  <si>
+    <t>PP-P-C-6-1-LGB-N</t>
   </si>
 </sst>
 </file>
@@ -385,12 +430,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -405,11 +456,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,26 +743,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -727,8 +781,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="K1">
         <v>8</v>
@@ -742,16 +802,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -765,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -776,8 +842,14 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -785,13 +857,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -802,11 +874,17 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -814,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -828,11 +906,17 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -840,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -854,11 +938,11 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -866,25 +950,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -892,45 +973,45 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -938,73 +1019,100 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="C12" s="1">
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1012,16 +1120,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1031,479 +1148,281 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1">
-        <v>220</v>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
-        <v>220</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1">
-        <v>220</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>92</v>
+      <c r="G25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1"/>
+    <hyperlink ref="H20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
